--- a/cases/case_exmple.xlsx
+++ b/cases/case_exmple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>{"phone":"17711794027","code":"4883"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +544,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -628,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18">
@@ -650,6 +654,9 @@
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2">
@@ -688,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18">
@@ -734,9 +741,6 @@
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
